--- a/public/lnb-product.xlsx
+++ b/public/lnb-product.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>product_code</t>
   </si>
@@ -57,6 +57,12 @@
     <t>category_id</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -66,34 +72,34 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>TDR3MUF-X</t>
+    <t>TTO14IV-X</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Mustard Floral T-Shirt Dress With Tie Plus Size</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Solid sleeveless hi low hem tank top with scoop neckline. Soft relaxed fabric with a little stretch. Perfect with your favorite L&amp;B Bottoms.&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;COMPOSITION&lt;/h2&gt;&lt;p style="margin-left: 20px;"&gt;62.5% POLYESTER&lt;/p&gt;&lt;p style="margin-left: 20px;"&gt;32.5% RAYON&lt;/p&gt;&lt;p style="margin-left: 20px;"&gt;5% SPANDEX&lt;/p&gt;&lt;h2&gt;CARE&lt;/h2&gt;&lt;p style="margin-left: 20px;"&gt; HAND WASH&lt;/p&gt;&lt;p style="margin-left: 20px;"&gt;DO NOT TUMBLE DRY&lt;/p&gt;&lt;p style="margin-left: 20px;"&gt;DO NOT BLEACH&lt;/p&gt;&lt;p style="margin-left: 20px;"&gt;MEDIUM IRON 160 C&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>ES6-NH-R_PRODUCT_SHOT__5__t3ny-q4_nyvi-8m_gm7j-j3_cnz0-en.jpg</t>
-  </si>
-  <si>
-    <t>TDR3BLK-X</t>
-  </si>
-  <si>
-    <t>Black T-Shirt Dress With Tie Plus Size</t>
-  </si>
-  <si>
-    <t>ES6-NH-NP_PRODUCT_SHOT__5__nkzi-pp_xc1y-kr_sqt1-vu.jpg</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ivory One Shoulder Tank Plus Size</t>
+  </si>
+  <si>
+    <t>&lt;h2 style="font-family: Arial, Helvetica, Verdana, Tahoma, sans-serif;"&gt;COMPOSITION&lt;/h2&gt;&lt;p&gt;62.5% POLYESTER, 32.5% RAYON, 5% SPANDEX&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>ES6-NH-B_PRODUCT_SHOT__4__2kw2-n1_5tjh-qv_9j8b-vo.jpg</t>
+  </si>
+  <si>
+    <t>TTO14FUC-X</t>
+  </si>
+  <si>
+    <t>Fuchsia One Shoulder Tank Plus Size</t>
+  </si>
+  <si>
+    <t>ES6-NH-M_PRODUCT_SHOT__4__w8hb-tr_hrum-22_e9wi-do.jpg</t>
   </si>
 </sst>
 </file>
@@ -900,13 +906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,19 +958,25 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>76670005848</v>
+        <v>85758206172</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -973,42 +985,45 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1623525460</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>37</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="N2">
-        <v>21881172296</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="P2">
+        <v>17226110323</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>10117773762</v>
+        <v>99826755279</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1017,28 +1032,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1623525161</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>37</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
         <v>5</v>
       </c>
-      <c r="N3">
-        <v>88646082630</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
+      <c r="P3">
+        <v>51904611459</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/lnb-product.xlsx
+++ b/public/lnb-product.xlsx
@@ -75,7 +75,7 @@
     <t>TTO14IV-X</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>R</t>
@@ -87,7 +87,7 @@
     <t>&lt;h2 style="font-family: Arial, Helvetica, Verdana, Tahoma, sans-serif;"&gt;COMPOSITION&lt;/h2&gt;&lt;p&gt;62.5% POLYESTER, 32.5% RAYON, 5% SPANDEX&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Top</t>
+    <t>Tops</t>
   </si>
   <si>
     <t>ES6-NH-B_PRODUCT_SHOT__4__2kw2-n1_5tjh-qv_9j8b-vo.jpg</t>
